--- a/Results/Excel/TC05_ConfirmPayment_Result.xlsx
+++ b/Results/Excel/TC05_ConfirmPayment_Result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Results\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35AB533-A4B2-430F-82DE-1BFEC9D1968C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5901E201-702A-41FA-ACE4-302651F64373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,7 +131,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Mic Shell Dlg"/>
@@ -161,6 +161,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -219,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -246,6 +253,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -555,7 +565,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -630,10 +640,10 @@
       <c r="G2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="10" t="s">
         <v>16</v>
       </c>
       <c r="J2" s="6" t="s">
@@ -665,10 +675,10 @@
       <c r="G3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="6" t="s">
@@ -700,10 +710,10 @@
       <c r="G4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="8" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="6" t="s">
@@ -735,10 +745,10 @@
       <c r="G5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="10" t="s">
         <v>16</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -770,10 +780,10 @@
       <c r="G6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="10" t="s">
         <v>16</v>
       </c>
       <c r="J6" s="6" t="s">
@@ -805,10 +815,10 @@
       <c r="G7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="10" t="s">
         <v>16</v>
       </c>
       <c r="J7" s="6" t="s">
